--- a/teaching/traditional_assets/database/data/turkey/turkey_restaurant_dining.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_restaurant_dining.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.194</v>
+        <v>0.219</v>
       </c>
       <c r="G2">
-        <v>-0.3399209486166008</v>
+        <v>-1.155844155844156</v>
       </c>
       <c r="H2">
-        <v>-0.3399209486166008</v>
+        <v>-1.155844155844156</v>
       </c>
       <c r="I2">
-        <v>-0.2885375494071146</v>
+        <v>-1.084415584415584</v>
       </c>
       <c r="J2">
-        <v>-0.2885375494071146</v>
+        <v>-0.9869805735030361</v>
       </c>
       <c r="K2">
-        <v>0.289</v>
+        <v>0.548</v>
       </c>
       <c r="L2">
-        <v>0.380764163372859</v>
+        <v>1.779220779220779</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.015</v>
+        <v>2.29</v>
       </c>
       <c r="V2">
-        <v>0.002946954813359528</v>
+        <v>0.1659420289855073</v>
       </c>
       <c r="W2">
-        <v>0.03900134952766531</v>
+        <v>1.215077605321508</v>
       </c>
       <c r="X2">
-        <v>0.08511378690792162</v>
+        <v>0.1031735572066229</v>
       </c>
       <c r="Y2">
-        <v>-0.04611243738025631</v>
+        <v>1.111904048114885</v>
       </c>
       <c r="Z2">
-        <v>0.09703400664791613</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="AA2">
-        <v>-0.02799795448734339</v>
+        <v>-0.3984141764599412</v>
       </c>
       <c r="AB2">
-        <v>0.08430824539278678</v>
+        <v>0.1027077133415109</v>
       </c>
       <c r="AC2">
-        <v>-0.1123061998801302</v>
+        <v>-0.5011218898014521</v>
       </c>
       <c r="AD2">
-        <v>0.162</v>
+        <v>0.177</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.162</v>
+        <v>0.177</v>
       </c>
       <c r="AG2">
-        <v>0.147</v>
+        <v>-2.113</v>
       </c>
       <c r="AH2">
-        <v>0.03084539223153085</v>
+        <v>0.01266366172998497</v>
       </c>
       <c r="AI2">
-        <v>0.1147308781869689</v>
+        <v>0.06261054120976299</v>
       </c>
       <c r="AJ2">
-        <v>0.02806950544204698</v>
+        <v>-0.1807991785744845</v>
       </c>
       <c r="AK2">
-        <v>0.1052254831782391</v>
+        <v>-3.934823091247673</v>
       </c>
       <c r="AL2">
-        <v>0.178</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM2">
-        <v>-0.5409999999999999</v>
+        <v>-0.76</v>
       </c>
       <c r="AN2">
-        <v>-1.006211180124224</v>
+        <v>-0.560126582278481</v>
       </c>
       <c r="AO2">
-        <v>-1.230337078651685</v>
+        <v>-3.839080459770115</v>
       </c>
       <c r="AP2">
-        <v>-0.9130434782608696</v>
+        <v>6.686708860759493</v>
       </c>
       <c r="AQ2">
-        <v>0.4048059149722736</v>
+        <v>0.4394736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.194</v>
+        <v>0.219</v>
       </c>
       <c r="G3">
-        <v>-0.3399209486166008</v>
+        <v>-1.155844155844156</v>
       </c>
       <c r="H3">
-        <v>-0.3399209486166008</v>
+        <v>-1.155844155844156</v>
       </c>
       <c r="I3">
-        <v>-0.2885375494071146</v>
+        <v>-1.084415584415584</v>
       </c>
       <c r="J3">
-        <v>-0.2885375494071146</v>
+        <v>-0.9869805735030361</v>
       </c>
       <c r="K3">
-        <v>0.289</v>
+        <v>0.548</v>
       </c>
       <c r="L3">
-        <v>0.380764163372859</v>
+        <v>1.779220779220779</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.015</v>
+        <v>2.29</v>
       </c>
       <c r="V3">
-        <v>0.002946954813359528</v>
+        <v>0.1659420289855073</v>
       </c>
       <c r="W3">
-        <v>0.03900134952766531</v>
+        <v>1.215077605321508</v>
       </c>
       <c r="X3">
-        <v>0.08511378690792162</v>
+        <v>0.1031735572066229</v>
       </c>
       <c r="Y3">
-        <v>-0.04611243738025631</v>
+        <v>1.111904048114885</v>
       </c>
       <c r="Z3">
-        <v>0.09703400664791613</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="AA3">
-        <v>-0.02799795448734339</v>
+        <v>-0.3984141764599412</v>
       </c>
       <c r="AB3">
-        <v>0.08430824539278678</v>
+        <v>0.1027077133415109</v>
       </c>
       <c r="AC3">
-        <v>-0.1123061998801302</v>
+        <v>-0.5011218898014521</v>
       </c>
       <c r="AD3">
-        <v>0.162</v>
+        <v>0.177</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.162</v>
+        <v>0.177</v>
       </c>
       <c r="AG3">
-        <v>0.147</v>
+        <v>-2.113</v>
       </c>
       <c r="AH3">
-        <v>0.03084539223153085</v>
+        <v>0.01266366172998497</v>
       </c>
       <c r="AI3">
-        <v>0.1147308781869689</v>
+        <v>0.06261054120976299</v>
       </c>
       <c r="AJ3">
-        <v>0.02806950544204698</v>
+        <v>-0.1807991785744845</v>
       </c>
       <c r="AK3">
-        <v>0.1052254831782391</v>
+        <v>-3.934823091247673</v>
       </c>
       <c r="AL3">
-        <v>0.178</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM3">
-        <v>-0.5409999999999999</v>
+        <v>-0.76</v>
       </c>
       <c r="AN3">
-        <v>-1.006211180124224</v>
+        <v>-0.560126582278481</v>
       </c>
       <c r="AO3">
-        <v>-1.230337078651685</v>
+        <v>-3.839080459770115</v>
       </c>
       <c r="AP3">
-        <v>-0.9130434782608696</v>
+        <v>6.686708860759493</v>
       </c>
       <c r="AQ3">
-        <v>0.4048059149722736</v>
+        <v>0.4394736842105263</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_restaurant_dining.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_restaurant_dining.xlsx
@@ -642,10 +642,10 @@
         <v>1.215077605321508</v>
       </c>
       <c r="X2">
-        <v>0.1031735572066229</v>
+        <v>0.1010560492558665</v>
       </c>
       <c r="Y2">
-        <v>1.111904048114885</v>
+        <v>1.114021556065641</v>
       </c>
       <c r="Z2">
         <v>0.4036697247706422</v>
@@ -654,10 +654,10 @@
         <v>-0.3984141764599412</v>
       </c>
       <c r="AB2">
-        <v>0.1027077133415109</v>
+        <v>0.1005528160301824</v>
       </c>
       <c r="AC2">
-        <v>-0.5011218898014521</v>
+        <v>-0.4989669924901236</v>
       </c>
       <c r="AD2">
         <v>0.177</v>
@@ -770,10 +770,10 @@
         <v>1.215077605321508</v>
       </c>
       <c r="X3">
-        <v>0.1031735572066229</v>
+        <v>0.1010560492558665</v>
       </c>
       <c r="Y3">
-        <v>1.111904048114885</v>
+        <v>1.114021556065641</v>
       </c>
       <c r="Z3">
         <v>0.4036697247706422</v>
@@ -782,10 +782,10 @@
         <v>-0.3984141764599412</v>
       </c>
       <c r="AB3">
-        <v>0.1027077133415109</v>
+        <v>0.1005528160301824</v>
       </c>
       <c r="AC3">
-        <v>-0.5011218898014521</v>
+        <v>-0.4989669924901236</v>
       </c>
       <c r="AD3">
         <v>0.177</v>
